--- a/basic-python-course-swastik/Swastik-Attendance.xlsx
+++ b/basic-python-course-swastik/Swastik-Attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="106">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t xml:space="preserve">Neha Shrestha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G3 – PhotoEditor – Pass</t>
   </si>
   <si>
     <t xml:space="preserve">Intro</t>
@@ -562,12 +565,14 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topRight" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="19.86"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -748,29 +753,32 @@
         <f aca="false">ROUND(COUNTIF(E2:AV2,"P")/($B$25-1),4) *100</f>
         <v>68.18</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D2" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -778,31 +786,31 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="S2" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
@@ -810,58 +818,58 @@
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW2" s="0"/>
       <c r="AX2" s="0"/>
@@ -890,7 +898,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="n">
         <f aca="false">ROUND(COUNTIF(E3:AV3,"P")/($B$25-1),4) *100</f>
@@ -898,16 +906,16 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -920,16 +928,16 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
@@ -941,49 +949,49 @@
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
       <c r="AM3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS3" s="5"/>
       <c r="AT3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW3" s="0"/>
       <c r="AX3" s="0"/>
@@ -1012,24 +1020,27 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="n">
         <f aca="false">ROUND(COUNTIF(E4:AV4,"P")/($B$25-1),4) *100</f>
         <v>77.27</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -1042,16 +1053,16 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
@@ -1063,49 +1074,49 @@
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
       <c r="AM4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS4" s="5"/>
       <c r="AT4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW4" s="0"/>
       <c r="AX4" s="0"/>
@@ -1134,7 +1145,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="n">
         <f aca="false">ROUND(COUNTIF(E5:AV5,"P")/($B$25-1),4) *100</f>
@@ -1142,16 +1153,16 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1164,16 +1175,16 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
@@ -1185,49 +1196,49 @@
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
       <c r="AM5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AS5" s="5"/>
       <c r="AT5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AW5" s="0"/>
       <c r="AX5" s="0"/>
@@ -1256,7 +1267,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="n">
         <f aca="false">ROUND(COUNTIF(E6:AV6,"P")/($B$25-1),4) *100</f>
@@ -1264,16 +1275,16 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -1286,16 +1297,16 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
@@ -1307,49 +1318,49 @@
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
       <c r="AM6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS6" s="5"/>
       <c r="AT6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AW6" s="0"/>
       <c r="AX6" s="0"/>
@@ -1378,27 +1389,27 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="n">
         <f aca="false">ROUND(COUNTIF(E7:AV7,"P")/($B$25-1),4) *100</f>
         <v>86.36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -1411,16 +1422,16 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
@@ -1432,49 +1443,49 @@
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
       <c r="AM7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AS7" s="5"/>
       <c r="AT7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AW7" s="0"/>
       <c r="AX7" s="0"/>
@@ -1503,7 +1514,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="n">
         <f aca="false">ROUND(COUNTIF(E8:AV8,"P")/($B$25-1),4) *100</f>
@@ -1511,16 +1522,16 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1533,16 +1544,16 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
@@ -1554,49 +1565,49 @@
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
       <c r="AM8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AS8" s="5"/>
       <c r="AT8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AW8" s="0"/>
       <c r="AX8" s="0"/>
@@ -1625,27 +1636,27 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="n">
         <f aca="false">ROUND(COUNTIF(E9:AV9,"P")/($B$25-1),4) *100</f>
         <v>68.18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -1658,16 +1669,16 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
@@ -1679,49 +1690,49 @@
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
       <c r="AM9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AS9" s="5"/>
       <c r="AT9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW9" s="0"/>
       <c r="AX9" s="0"/>
@@ -1750,27 +1761,27 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="n">
         <f aca="false">ROUND(COUNTIF(E10:AV10,"P")/($B$25-1),4) *100</f>
         <v>59.09</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -1783,16 +1794,16 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
@@ -1804,49 +1815,49 @@
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
       <c r="AM10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AS10" s="5"/>
       <c r="AT10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW10" s="0"/>
       <c r="AX10" s="0"/>
@@ -1875,7 +1886,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1" t="n">
         <f aca="false">ROUND(COUNTIF(E11:AV11,"P")/($B$25-1),4) *100</f>
@@ -1883,16 +1894,16 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -1905,16 +1916,16 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
@@ -1926,49 +1937,49 @@
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
       <c r="AM11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AS11" s="5"/>
       <c r="AT11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW11" s="0"/>
       <c r="AX11" s="0"/>
@@ -1997,24 +2008,27 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="n">
         <f aca="false">ROUND(COUNTIF(E12:AV12,"P")/($B$25-1),4) *100</f>
         <v>81.82</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -2027,16 +2041,16 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
@@ -2048,49 +2062,49 @@
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
       <c r="AM12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AS12" s="5"/>
       <c r="AT12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW12" s="0"/>
       <c r="AX12" s="0"/>
@@ -2119,7 +2133,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1" t="n">
         <f aca="false">ROUND(COUNTIF(E13:AV13,"P")/($B$25-1),4) *100</f>
@@ -2127,16 +2141,16 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -2149,16 +2163,16 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
@@ -2170,49 +2184,49 @@
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
       <c r="AM13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AS13" s="5"/>
       <c r="AT13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW13" s="0"/>
       <c r="AX13" s="0"/>
@@ -2241,24 +2255,27 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="n">
         <f aca="false">ROUND(COUNTIF(E14:AV14,"P")/($B$25-1),4) *100</f>
         <v>27.27</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -2271,16 +2288,16 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
@@ -2292,49 +2309,49 @@
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
       <c r="AM14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS14" s="5"/>
       <c r="AT14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW14" s="0"/>
       <c r="AX14" s="0"/>
@@ -2363,7 +2380,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1" t="n">
         <f aca="false">ROUND(COUNTIF(E15:AV15,"P")/($B$25-1),4) *100</f>
@@ -2371,16 +2388,16 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -2393,16 +2410,16 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
@@ -2414,49 +2431,49 @@
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
       <c r="AM15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS15" s="5"/>
       <c r="AT15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AW15" s="0"/>
       <c r="AX15" s="0"/>
@@ -2485,7 +2502,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" s="7" t="n">
         <f aca="false">ROUND(COUNTIF(E16:AV16,"P")/($B$25-1),4) *100</f>
@@ -2494,16 +2511,16 @@
       <c r="C16" s="7"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -2516,16 +2533,16 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U16" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V16" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
@@ -2537,10 +2554,10 @@
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH16" s="9"/>
       <c r="AI16" s="9"/>
@@ -3536,7 +3553,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17" s="7" t="n">
         <f aca="false">ROUND(COUNTIF(E17:AV17,"P")/($B$25-1),4) *100</f>
@@ -3545,16 +3562,16 @@
       <c r="C17" s="7"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -3567,16 +3584,16 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U17" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
@@ -3588,10 +3605,10 @@
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG17" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH17" s="9"/>
       <c r="AI17" s="9"/>
@@ -4587,7 +4604,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" s="7" t="n">
         <f aca="false">ROUND(COUNTIF(E18:AV18,"P")/($B$25-1),4) *100</f>
@@ -4596,16 +4613,16 @@
       <c r="C18" s="7"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -4618,16 +4635,16 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U18" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V18" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
@@ -4639,10 +4656,10 @@
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG18" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH18" s="9"/>
       <c r="AI18" s="9"/>
@@ -5638,7 +5655,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B19" s="7" t="n">
         <f aca="false">ROUND(COUNTIF(E19:AV19,"P")/($B$25-1),4) *100</f>
@@ -5647,16 +5664,16 @@
       <c r="C19" s="7"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -5669,16 +5686,16 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U19" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
@@ -5690,10 +5707,10 @@
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG19" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH19" s="9"/>
       <c r="AI19" s="9"/>
@@ -6689,7 +6706,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -6896,80 +6913,80 @@
     </row>
     <row r="21" s="11" customFormat="true" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="S21" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF21" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG21" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH21" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI21" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AJ21" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM21" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN21" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO21" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AP21" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AQ21" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AR21" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AT21" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AU21" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AV21" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AW21" s="0"/>
       <c r="AX21" s="0"/>
@@ -6998,7 +7015,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>1</v>
@@ -7122,7 +7139,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B24" s="1" t="n">
         <f aca="false">SUM(D22:BF22)</f>
@@ -7156,7 +7173,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>23</v>
